--- a/test/test.xlsx
+++ b/test/test.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ssu-admission-uipath\Cert of Admission\test\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ssu-admission-uipath\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62905B49-2E18-4B0D-9377-5A35E193AF7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{260A6050-449E-4978-A4A2-5DF4FE1D71A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="39">
   <si>
     <t>성명</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -157,6 +157,9 @@
   </si>
   <si>
     <t>개강일</t>
+  </si>
+  <si>
+    <t>등록금최종납입기한</t>
   </si>
 </sst>
 </file>
@@ -491,11 +494,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S3"/>
+  <dimension ref="A1:T3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="P3" sqref="P3"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
@@ -507,17 +508,18 @@
     <col min="8" max="10" width="11.296875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="12.3984375" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="17" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="16.3984375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.3984375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.3984375" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="19.09765625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="28.8984375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="9.3984375" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="8.8984375" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="9.3984375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17" customWidth="1"/>
+    <col min="15" max="15" width="16.3984375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.3984375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.3984375" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="19.09765625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="28.8984375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="9.3984375" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="8.8984375" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="9.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -558,25 +560,28 @@
         <v>10</v>
       </c>
       <c r="N1" t="s">
+        <v>38</v>
+      </c>
+      <c r="O1" t="s">
         <v>11</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>37</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>36</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>34</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>12</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>27</v>
       </c>
@@ -619,23 +624,26 @@
       <c r="N2" t="s">
         <v>23</v>
       </c>
-      <c r="O2">
+      <c r="O2" t="s">
+        <v>23</v>
+      </c>
+      <c r="P2">
         <v>20250302</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>24</v>
       </c>
-      <c r="Q2">
+      <c r="R2">
         <v>8672000</v>
       </c>
-      <c r="R2">
+      <c r="S2">
         <v>11328000</v>
       </c>
-      <c r="S2">
+      <c r="T2">
         <v>20000000</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>13</v>
       </c>
@@ -678,19 +686,22 @@
       <c r="N3" t="s">
         <v>23</v>
       </c>
-      <c r="O3">
+      <c r="O3" t="s">
+        <v>23</v>
+      </c>
+      <c r="P3">
         <v>20250302</v>
       </c>
-      <c r="P3" t="s">
+      <c r="Q3" t="s">
         <v>33</v>
       </c>
-      <c r="Q3">
+      <c r="R3">
         <v>8672000</v>
       </c>
-      <c r="R3">
+      <c r="S3">
         <v>11328000</v>
       </c>
-      <c r="S3">
+      <c r="T3">
         <v>20000000</v>
       </c>
     </row>

--- a/test/test.xlsx
+++ b/test/test.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ssu-admission-uipath\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{260A6050-449E-4978-A4A2-5DF4FE1D71A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F75F1148-4B7F-42F2-961D-D23AD732DFCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="182">
   <si>
     <t>성명</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -160,6 +161,435 @@
   </si>
   <si>
     <t>등록금최종납입기한</t>
+  </si>
+  <si>
+    <t>학과명(한글)</t>
+  </si>
+  <si>
+    <t>학과명(영문)</t>
+  </si>
+  <si>
+    <t>대계열</t>
+  </si>
+  <si>
+    <t>중계열</t>
+  </si>
+  <si>
+    <t>소계열</t>
+  </si>
+  <si>
+    <t>기독교학과</t>
+  </si>
+  <si>
+    <t>Christian Studies</t>
+  </si>
+  <si>
+    <t>인문</t>
+  </si>
+  <si>
+    <t>인문과학</t>
+  </si>
+  <si>
+    <t>종교학</t>
+  </si>
+  <si>
+    <t>국어국문학과</t>
+  </si>
+  <si>
+    <t>Korean Language and Literature</t>
+  </si>
+  <si>
+    <t>언어·문학</t>
+  </si>
+  <si>
+    <t>국어·국문학</t>
+  </si>
+  <si>
+    <t>영어영문학과</t>
+  </si>
+  <si>
+    <t>English Language and Literature</t>
+  </si>
+  <si>
+    <t>영미어·문학</t>
+  </si>
+  <si>
+    <t>독어독문학과</t>
+  </si>
+  <si>
+    <t>German Language and Literature</t>
+  </si>
+  <si>
+    <t>독일어·문학</t>
+  </si>
+  <si>
+    <t>불어불문학과</t>
+  </si>
+  <si>
+    <t>French Language and Literature</t>
+  </si>
+  <si>
+    <t>프랑스어·문학</t>
+  </si>
+  <si>
+    <t>중어중문학과</t>
+  </si>
+  <si>
+    <t>Chinese Language and Literature</t>
+  </si>
+  <si>
+    <t>중국어·문학</t>
+  </si>
+  <si>
+    <t>일어일문학과</t>
+  </si>
+  <si>
+    <t>Japanese Language and Literature</t>
+  </si>
+  <si>
+    <t>일본어·문학</t>
+  </si>
+  <si>
+    <t>철학과</t>
+  </si>
+  <si>
+    <t>Philosophy</t>
+  </si>
+  <si>
+    <t>철학·윤리학</t>
+  </si>
+  <si>
+    <t>사학과</t>
+  </si>
+  <si>
+    <t>History</t>
+  </si>
+  <si>
+    <t>역사·고고학</t>
+  </si>
+  <si>
+    <t>예술창작학부(영화예술전공)</t>
+  </si>
+  <si>
+    <t>Major in Film Arts</t>
+  </si>
+  <si>
+    <t>예체능</t>
+  </si>
+  <si>
+    <t>연극·영화</t>
+  </si>
+  <si>
+    <t>스포츠학부</t>
+  </si>
+  <si>
+    <t>Sports</t>
+  </si>
+  <si>
+    <t>무용·체육</t>
+  </si>
+  <si>
+    <t>체육</t>
+  </si>
+  <si>
+    <t>법학과</t>
+  </si>
+  <si>
+    <t>Law</t>
+  </si>
+  <si>
+    <t>사회</t>
+  </si>
+  <si>
+    <t>법률</t>
+  </si>
+  <si>
+    <t>법학</t>
+  </si>
+  <si>
+    <t>국제법무학과</t>
+  </si>
+  <si>
+    <t>International Lega Affairs</t>
+  </si>
+  <si>
+    <t>사회복지학부</t>
+  </si>
+  <si>
+    <t>Social Welfare</t>
+  </si>
+  <si>
+    <t>사회과학</t>
+  </si>
+  <si>
+    <t>가족·사회·복지학</t>
+  </si>
+  <si>
+    <t>행정학부</t>
+  </si>
+  <si>
+    <t>Public Admnistration</t>
+  </si>
+  <si>
+    <t>행정학</t>
+  </si>
+  <si>
+    <t>정치외교학과</t>
+  </si>
+  <si>
+    <t>Political Science and Diplomacy</t>
+  </si>
+  <si>
+    <t>정치외교학</t>
+  </si>
+  <si>
+    <t>정보사회학과</t>
+  </si>
+  <si>
+    <t>Information Sociology</t>
+  </si>
+  <si>
+    <t>사회학</t>
+  </si>
+  <si>
+    <t>언론홍보학과</t>
+  </si>
+  <si>
+    <t>Mass Communication</t>
+  </si>
+  <si>
+    <t>언론·방송·매체학</t>
+  </si>
+  <si>
+    <t>경제학과</t>
+  </si>
+  <si>
+    <t>Economics</t>
+  </si>
+  <si>
+    <t>경영·경제</t>
+  </si>
+  <si>
+    <t>경제학</t>
+  </si>
+  <si>
+    <t>글로벌통상학과</t>
+  </si>
+  <si>
+    <t>Global Commerce</t>
+  </si>
+  <si>
+    <t>무역·유통학</t>
+  </si>
+  <si>
+    <t>경영학부</t>
+  </si>
+  <si>
+    <t>Business Administration</t>
+  </si>
+  <si>
+    <t>경영학</t>
+  </si>
+  <si>
+    <t>회계학과</t>
+  </si>
+  <si>
+    <t>Accounting</t>
+  </si>
+  <si>
+    <t>금융·회계·세무학</t>
+  </si>
+  <si>
+    <t>벤처중소기업학과</t>
+  </si>
+  <si>
+    <t>Entrepreneurship and Small Business</t>
+  </si>
+  <si>
+    <t>금융학부</t>
+  </si>
+  <si>
+    <t>Finance</t>
+  </si>
+  <si>
+    <t>수학과</t>
+  </si>
+  <si>
+    <t>Mathematics</t>
+  </si>
+  <si>
+    <t>자연</t>
+  </si>
+  <si>
+    <t>수학·물리·천문·지리</t>
+  </si>
+  <si>
+    <t>수학</t>
+  </si>
+  <si>
+    <t>물리학과</t>
+  </si>
+  <si>
+    <t>Physics</t>
+  </si>
+  <si>
+    <t>물리·과학</t>
+  </si>
+  <si>
+    <t>화학과</t>
+  </si>
+  <si>
+    <t>Chemistry</t>
+  </si>
+  <si>
+    <t>생물·화학·환경</t>
+  </si>
+  <si>
+    <t>화학</t>
+  </si>
+  <si>
+    <t>정보통계보험수리학과</t>
+  </si>
+  <si>
+    <t>Statistics and Actuarial Science</t>
+  </si>
+  <si>
+    <t>통계학</t>
+  </si>
+  <si>
+    <t>의생명시스템학부</t>
+  </si>
+  <si>
+    <t>Medical Biosystematics</t>
+  </si>
+  <si>
+    <t>생명과학</t>
+  </si>
+  <si>
+    <t>화학공학과</t>
+  </si>
+  <si>
+    <t>Chimical Engineering</t>
+  </si>
+  <si>
+    <t>공학</t>
+  </si>
+  <si>
+    <t>화공</t>
+  </si>
+  <si>
+    <t>화학공학</t>
+  </si>
+  <si>
+    <t>유기신소재파이버공학과</t>
+  </si>
+  <si>
+    <t>Oraganic Materials and Fiber Engineering</t>
+  </si>
+  <si>
+    <t>소재·재료</t>
+  </si>
+  <si>
+    <t>신소재공학</t>
+  </si>
+  <si>
+    <t>전기공학부</t>
+  </si>
+  <si>
+    <t>Electrical Engineering</t>
+  </si>
+  <si>
+    <t>전기·전자</t>
+  </si>
+  <si>
+    <t>전기공학</t>
+  </si>
+  <si>
+    <t>기계공학부</t>
+  </si>
+  <si>
+    <t>Mechanical Engineering</t>
+  </si>
+  <si>
+    <t>기계·금속</t>
+  </si>
+  <si>
+    <t>기계공학</t>
+  </si>
+  <si>
+    <t>산업정보시스템공학과</t>
+  </si>
+  <si>
+    <t>Industrial and Information Systems Engineering</t>
+  </si>
+  <si>
+    <t>산업</t>
+  </si>
+  <si>
+    <t>산업공학</t>
+  </si>
+  <si>
+    <t>건축학부 건축학·건축공학전공</t>
+  </si>
+  <si>
+    <t>Majors in Architectural Design and Architectural Engineering</t>
+  </si>
+  <si>
+    <t>건축</t>
+  </si>
+  <si>
+    <t>건축학</t>
+  </si>
+  <si>
+    <t>컴퓨터학부</t>
+  </si>
+  <si>
+    <t>Computer Science and Engineering</t>
+  </si>
+  <si>
+    <t>컴퓨터·통신</t>
+  </si>
+  <si>
+    <t>전산학·컴퓨터공학</t>
+  </si>
+  <si>
+    <t>전자정보공학부(전자공학전공)</t>
+  </si>
+  <si>
+    <t>Major in Electronic Engineering</t>
+  </si>
+  <si>
+    <t>전자공학</t>
+  </si>
+  <si>
+    <t>전자정보공학부(IT융합전공)</t>
+  </si>
+  <si>
+    <t>Major in IT Convergence</t>
+  </si>
+  <si>
+    <t>정보·통신공학</t>
+  </si>
+  <si>
+    <t>글로벌미디어학부</t>
+  </si>
+  <si>
+    <t>Global School of Media</t>
+  </si>
+  <si>
+    <t>응용소프트웨어공학</t>
+  </si>
+  <si>
+    <t>소프트웨어학부</t>
+  </si>
+  <si>
+    <t>School of Software</t>
+  </si>
+  <si>
+    <t>AI융합학부</t>
+  </si>
+  <si>
+    <t>Department of AI Convergence</t>
   </si>
 </sst>
 </file>
@@ -709,4 +1139,758 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95818BB7-76F9-4A6F-9D04-6E1C99F46E2C}">
+  <dimension ref="A1:E43"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="27.19921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="53.69921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.59765625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.296875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D6" t="s">
+        <v>51</v>
+      </c>
+      <c r="E6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A7" t="s">
+        <v>62</v>
+      </c>
+      <c r="B7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D7" t="s">
+        <v>51</v>
+      </c>
+      <c r="E7" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A8" t="s">
+        <v>65</v>
+      </c>
+      <c r="B8" t="s">
+        <v>66</v>
+      </c>
+      <c r="C8" t="s">
+        <v>46</v>
+      </c>
+      <c r="D8" t="s">
+        <v>51</v>
+      </c>
+      <c r="E8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A9" t="s">
+        <v>68</v>
+      </c>
+      <c r="B9" t="s">
+        <v>69</v>
+      </c>
+      <c r="C9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D9" t="s">
+        <v>47</v>
+      </c>
+      <c r="E9" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A10" t="s">
+        <v>71</v>
+      </c>
+      <c r="B10" t="s">
+        <v>72</v>
+      </c>
+      <c r="C10" t="s">
+        <v>46</v>
+      </c>
+      <c r="D10" t="s">
+        <v>47</v>
+      </c>
+      <c r="E10" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A11" t="s">
+        <v>74</v>
+      </c>
+      <c r="B11" t="s">
+        <v>75</v>
+      </c>
+      <c r="C11" t="s">
+        <v>76</v>
+      </c>
+      <c r="D11" t="s">
+        <v>77</v>
+      </c>
+      <c r="E11" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A12" t="s">
+        <v>78</v>
+      </c>
+      <c r="B12" t="s">
+        <v>79</v>
+      </c>
+      <c r="C12" t="s">
+        <v>76</v>
+      </c>
+      <c r="D12" t="s">
+        <v>80</v>
+      </c>
+      <c r="E12" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A13" t="s">
+        <v>82</v>
+      </c>
+      <c r="B13" t="s">
+        <v>83</v>
+      </c>
+      <c r="C13" t="s">
+        <v>84</v>
+      </c>
+      <c r="D13" t="s">
+        <v>85</v>
+      </c>
+      <c r="E13" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A14" t="s">
+        <v>87</v>
+      </c>
+      <c r="B14" t="s">
+        <v>88</v>
+      </c>
+      <c r="C14" t="s">
+        <v>84</v>
+      </c>
+      <c r="D14" t="s">
+        <v>85</v>
+      </c>
+      <c r="E14" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A15" t="s">
+        <v>89</v>
+      </c>
+      <c r="B15" t="s">
+        <v>90</v>
+      </c>
+      <c r="C15" t="s">
+        <v>84</v>
+      </c>
+      <c r="D15" t="s">
+        <v>91</v>
+      </c>
+      <c r="E15" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A16" t="s">
+        <v>93</v>
+      </c>
+      <c r="B16" t="s">
+        <v>94</v>
+      </c>
+      <c r="C16" t="s">
+        <v>84</v>
+      </c>
+      <c r="D16" t="s">
+        <v>91</v>
+      </c>
+      <c r="E16" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A17" t="s">
+        <v>96</v>
+      </c>
+      <c r="B17" t="s">
+        <v>97</v>
+      </c>
+      <c r="C17" t="s">
+        <v>84</v>
+      </c>
+      <c r="D17" t="s">
+        <v>91</v>
+      </c>
+      <c r="E17" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A18" t="s">
+        <v>99</v>
+      </c>
+      <c r="B18" t="s">
+        <v>100</v>
+      </c>
+      <c r="C18" t="s">
+        <v>84</v>
+      </c>
+      <c r="D18" t="s">
+        <v>91</v>
+      </c>
+      <c r="E18" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A19" t="s">
+        <v>102</v>
+      </c>
+      <c r="B19" t="s">
+        <v>103</v>
+      </c>
+      <c r="C19" t="s">
+        <v>84</v>
+      </c>
+      <c r="D19" t="s">
+        <v>91</v>
+      </c>
+      <c r="E19" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A20" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20" t="s">
+        <v>18</v>
+      </c>
+      <c r="D20" t="s">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A21" t="s">
+        <v>105</v>
+      </c>
+      <c r="B21" t="s">
+        <v>106</v>
+      </c>
+      <c r="C21" t="s">
+        <v>84</v>
+      </c>
+      <c r="D21" t="s">
+        <v>107</v>
+      </c>
+      <c r="E21" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A22" t="s">
+        <v>109</v>
+      </c>
+      <c r="B22" t="s">
+        <v>110</v>
+      </c>
+      <c r="C22" t="s">
+        <v>84</v>
+      </c>
+      <c r="D22" t="s">
+        <v>107</v>
+      </c>
+      <c r="E22" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A23" t="s">
+        <v>112</v>
+      </c>
+      <c r="B23" t="s">
+        <v>113</v>
+      </c>
+      <c r="C23" t="s">
+        <v>84</v>
+      </c>
+      <c r="D23" t="s">
+        <v>107</v>
+      </c>
+      <c r="E23" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A24" t="s">
+        <v>115</v>
+      </c>
+      <c r="B24" t="s">
+        <v>116</v>
+      </c>
+      <c r="C24" t="s">
+        <v>84</v>
+      </c>
+      <c r="D24" t="s">
+        <v>107</v>
+      </c>
+      <c r="E24" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A25" t="s">
+        <v>118</v>
+      </c>
+      <c r="B25" t="s">
+        <v>119</v>
+      </c>
+      <c r="C25" t="s">
+        <v>84</v>
+      </c>
+      <c r="D25" t="s">
+        <v>107</v>
+      </c>
+      <c r="E25" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A26" t="s">
+        <v>120</v>
+      </c>
+      <c r="B26" t="s">
+        <v>121</v>
+      </c>
+      <c r="C26" t="s">
+        <v>84</v>
+      </c>
+      <c r="D26" t="s">
+        <v>107</v>
+      </c>
+      <c r="E26" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A27" t="s">
+        <v>122</v>
+      </c>
+      <c r="B27" t="s">
+        <v>123</v>
+      </c>
+      <c r="C27" t="s">
+        <v>124</v>
+      </c>
+      <c r="D27" t="s">
+        <v>125</v>
+      </c>
+      <c r="E27" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A28" t="s">
+        <v>127</v>
+      </c>
+      <c r="B28" t="s">
+        <v>128</v>
+      </c>
+      <c r="C28" t="s">
+        <v>124</v>
+      </c>
+      <c r="D28" t="s">
+        <v>125</v>
+      </c>
+      <c r="E28" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A29" t="s">
+        <v>130</v>
+      </c>
+      <c r="B29" t="s">
+        <v>131</v>
+      </c>
+      <c r="C29" t="s">
+        <v>124</v>
+      </c>
+      <c r="D29" t="s">
+        <v>132</v>
+      </c>
+      <c r="E29" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A30" t="s">
+        <v>134</v>
+      </c>
+      <c r="B30" t="s">
+        <v>135</v>
+      </c>
+      <c r="C30" t="s">
+        <v>124</v>
+      </c>
+      <c r="D30" t="s">
+        <v>125</v>
+      </c>
+      <c r="E30" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A31" t="s">
+        <v>137</v>
+      </c>
+      <c r="B31" t="s">
+        <v>138</v>
+      </c>
+      <c r="C31" t="s">
+        <v>124</v>
+      </c>
+      <c r="D31" t="s">
+        <v>132</v>
+      </c>
+      <c r="E31" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A32" t="s">
+        <v>140</v>
+      </c>
+      <c r="B32" t="s">
+        <v>141</v>
+      </c>
+      <c r="C32" t="s">
+        <v>142</v>
+      </c>
+      <c r="D32" t="s">
+        <v>143</v>
+      </c>
+      <c r="E32" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A33" t="s">
+        <v>145</v>
+      </c>
+      <c r="B33" t="s">
+        <v>146</v>
+      </c>
+      <c r="C33" t="s">
+        <v>142</v>
+      </c>
+      <c r="D33" t="s">
+        <v>147</v>
+      </c>
+      <c r="E33" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A34" t="s">
+        <v>149</v>
+      </c>
+      <c r="B34" t="s">
+        <v>150</v>
+      </c>
+      <c r="C34" t="s">
+        <v>142</v>
+      </c>
+      <c r="D34" t="s">
+        <v>151</v>
+      </c>
+      <c r="E34" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A35" t="s">
+        <v>153</v>
+      </c>
+      <c r="B35" t="s">
+        <v>154</v>
+      </c>
+      <c r="C35" t="s">
+        <v>142</v>
+      </c>
+      <c r="D35" t="s">
+        <v>155</v>
+      </c>
+      <c r="E35" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A36" t="s">
+        <v>157</v>
+      </c>
+      <c r="B36" t="s">
+        <v>158</v>
+      </c>
+      <c r="C36" t="s">
+        <v>142</v>
+      </c>
+      <c r="D36" t="s">
+        <v>159</v>
+      </c>
+      <c r="E36" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A37" t="s">
+        <v>161</v>
+      </c>
+      <c r="B37" t="s">
+        <v>162</v>
+      </c>
+      <c r="C37" t="s">
+        <v>142</v>
+      </c>
+      <c r="D37" t="s">
+        <v>163</v>
+      </c>
+      <c r="E37" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A38" t="s">
+        <v>165</v>
+      </c>
+      <c r="B38" t="s">
+        <v>166</v>
+      </c>
+      <c r="C38" t="s">
+        <v>142</v>
+      </c>
+      <c r="D38" t="s">
+        <v>167</v>
+      </c>
+      <c r="E38" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A39" t="s">
+        <v>169</v>
+      </c>
+      <c r="B39" t="s">
+        <v>170</v>
+      </c>
+      <c r="C39" t="s">
+        <v>142</v>
+      </c>
+      <c r="D39" t="s">
+        <v>151</v>
+      </c>
+      <c r="E39" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A40" t="s">
+        <v>172</v>
+      </c>
+      <c r="B40" t="s">
+        <v>173</v>
+      </c>
+      <c r="C40" t="s">
+        <v>142</v>
+      </c>
+      <c r="D40" t="s">
+        <v>167</v>
+      </c>
+      <c r="E40" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A41" t="s">
+        <v>175</v>
+      </c>
+      <c r="B41" t="s">
+        <v>176</v>
+      </c>
+      <c r="C41" t="s">
+        <v>142</v>
+      </c>
+      <c r="D41" t="s">
+        <v>167</v>
+      </c>
+      <c r="E41" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A42" t="s">
+        <v>178</v>
+      </c>
+      <c r="B42" t="s">
+        <v>179</v>
+      </c>
+      <c r="C42" t="s">
+        <v>142</v>
+      </c>
+      <c r="D42" t="s">
+        <v>167</v>
+      </c>
+      <c r="E42" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A43" t="s">
+        <v>180</v>
+      </c>
+      <c r="B43" t="s">
+        <v>181</v>
+      </c>
+      <c r="C43" t="s">
+        <v>142</v>
+      </c>
+      <c r="D43" t="s">
+        <v>167</v>
+      </c>
+      <c r="E43" t="s">
+        <v>177</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/test/test.xlsx
+++ b/test/test.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ssu-admission-uipath\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F75F1148-4B7F-42F2-961D-D23AD732DFCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83E61895-E17E-4B4E-851E-EB00C2999ED6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="177">
   <si>
     <t>성명</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -49,14 +49,6 @@
     <t>유학생사진등록</t>
   </si>
   <si>
-    <t>계열구분_중</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>계열구분_소</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>교육기간</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -64,9 +56,6 @@
     <t>학과명_한글</t>
   </si>
   <si>
-    <t>학과명_영문</t>
-  </si>
-  <si>
     <t>교육종료예정일자</t>
   </si>
   <si>
@@ -130,14 +119,6 @@
   </si>
   <si>
     <t>여</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>계열구분_대</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Lifelong Education</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -924,7 +905,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T3"/>
+  <dimension ref="A1:P3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -935,21 +916,19 @@
     <col min="3" max="3" width="9.8984375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.5" customWidth="1"/>
-    <col min="8" max="10" width="11.296875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.3984375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="17" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17" customWidth="1"/>
-    <col min="15" max="15" width="16.3984375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.3984375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.3984375" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="19.09765625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="28.8984375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="9.3984375" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="8.8984375" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="9.3984375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.3984375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17" customWidth="1"/>
+    <col min="11" max="11" width="16.3984375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.3984375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.3984375" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="19.09765625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="28.8984375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.3984375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="8.8984375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="9.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -969,169 +948,133 @@
         <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="H1" t="s">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="I1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J1" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="K1" t="s">
         <v>8</v>
       </c>
       <c r="L1" t="s">
+        <v>32</v>
+      </c>
+      <c r="M1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1" t="s">
+        <v>29</v>
+      </c>
+      <c r="O1" t="s">
         <v>9</v>
       </c>
-      <c r="M1" t="s">
-        <v>10</v>
-      </c>
-      <c r="N1" t="s">
-        <v>38</v>
-      </c>
-      <c r="O1" t="s">
-        <v>11</v>
-      </c>
       <c r="P1" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>36</v>
-      </c>
-      <c r="R1" t="s">
-        <v>34</v>
-      </c>
-      <c r="S1" t="s">
-        <v>12</v>
-      </c>
-      <c r="T1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.4">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B2">
         <v>20240101</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F2">
         <v>123455</v>
       </c>
       <c r="G2" t="s">
-        <v>26</v>
-      </c>
-      <c r="H2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H2">
+        <v>48</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="I2" t="s">
-        <v>19</v>
       </c>
       <c r="J2" t="s">
         <v>20</v>
       </c>
-      <c r="K2">
-        <v>48</v>
-      </c>
-      <c r="L2" s="1" t="s">
+      <c r="K2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L2">
+        <v>20250302</v>
+      </c>
+      <c r="M2" t="s">
         <v>21</v>
       </c>
-      <c r="M2" t="s">
-        <v>22</v>
-      </c>
-      <c r="N2" t="s">
-        <v>23</v>
-      </c>
-      <c r="O2" t="s">
-        <v>23</v>
+      <c r="N2">
+        <v>8672000</v>
+      </c>
+      <c r="O2">
+        <v>11328000</v>
       </c>
       <c r="P2">
-        <v>20250302</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>24</v>
-      </c>
-      <c r="R2">
-        <v>8672000</v>
-      </c>
-      <c r="S2">
-        <v>11328000</v>
-      </c>
-      <c r="T2">
         <v>20000000</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>17</v>
       </c>
       <c r="F3" s="1">
         <v>123456</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H3">
+        <v>48</v>
+      </c>
+      <c r="I3" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="I3" t="s">
-        <v>19</v>
       </c>
       <c r="J3" t="s">
         <v>20</v>
       </c>
-      <c r="K3">
-        <v>48</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>21</v>
+      <c r="K3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L3">
+        <v>20250302</v>
       </c>
       <c r="M3" t="s">
-        <v>32</v>
-      </c>
-      <c r="N3" t="s">
-        <v>23</v>
-      </c>
-      <c r="O3" t="s">
-        <v>23</v>
+        <v>28</v>
+      </c>
+      <c r="N3">
+        <v>8672000</v>
+      </c>
+      <c r="O3">
+        <v>11328000</v>
       </c>
       <c r="P3">
-        <v>20250302</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>33</v>
-      </c>
-      <c r="R3">
-        <v>8672000</v>
-      </c>
-      <c r="S3">
-        <v>11328000</v>
-      </c>
-      <c r="T3">
         <v>20000000</v>
       </c>
     </row>
@@ -1145,9 +1088,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95818BB7-76F9-4A6F-9D04-6E1C99F46E2C}">
   <dimension ref="A1:E43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
@@ -1160,733 +1101,733 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B1" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C1" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="D1" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="E1" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B2" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C2" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="D2" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="E2" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B3" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D3" t="s">
         <v>46</v>
       </c>
-      <c r="D3" t="s">
-        <v>51</v>
-      </c>
       <c r="E3" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B4" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="C4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D4" t="s">
         <v>46</v>
       </c>
-      <c r="D4" t="s">
-        <v>51</v>
-      </c>
       <c r="E4" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B5" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D5" t="s">
         <v>46</v>
       </c>
-      <c r="D5" t="s">
-        <v>51</v>
-      </c>
       <c r="E5" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B6" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D6" t="s">
         <v>46</v>
       </c>
-      <c r="D6" t="s">
-        <v>51</v>
-      </c>
       <c r="E6" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B7" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="C7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D7" t="s">
         <v>46</v>
       </c>
-      <c r="D7" t="s">
-        <v>51</v>
-      </c>
       <c r="E7" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="B8" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="C8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D8" t="s">
         <v>46</v>
       </c>
-      <c r="D8" t="s">
-        <v>51</v>
-      </c>
       <c r="E8" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="B9" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="C9" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="D9" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="E9" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="B10" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="C10" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="D10" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="E10" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="B11" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C11" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="D11" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="E11" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="B12" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="C12" t="s">
+        <v>71</v>
+      </c>
+      <c r="D12" t="s">
+        <v>75</v>
+      </c>
+      <c r="E12" t="s">
         <v>76</v>
-      </c>
-      <c r="D12" t="s">
-        <v>80</v>
-      </c>
-      <c r="E12" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="B13" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="C13" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="D13" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="E13" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="B14" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="C14" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="D14" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="E14" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="B15" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="C15" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="D15" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="E15" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="B16" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="C16" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="D16" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="E16" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="B17" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="C17" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="D17" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="E17" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="B18" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="C18" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="D18" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="E18" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="B19" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="C19" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="D19" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="E19" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C20" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D20" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E20" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="B21" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="C21" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="D21" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="E21" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="B22" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="C22" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="D22" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="E22" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="B23" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="C23" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="D23" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="E23" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="B24" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="C24" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="D24" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="E24" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="B25" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="C25" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="D25" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="E25" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="B26" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="C26" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="D26" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="E26" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="B27" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="C27" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="D27" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="E27" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="B28" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="C28" t="s">
+        <v>119</v>
+      </c>
+      <c r="D28" t="s">
+        <v>120</v>
+      </c>
+      <c r="E28" t="s">
         <v>124</v>
-      </c>
-      <c r="D28" t="s">
-        <v>125</v>
-      </c>
-      <c r="E28" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="B29" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="C29" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="D29" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="E29" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="B30" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="C30" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="D30" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="E30" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="B31" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="C31" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="D31" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="E31" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A32" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="B32" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="C32" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="D32" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="E32" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A33" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="B33" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="C33" t="s">
+        <v>137</v>
+      </c>
+      <c r="D33" t="s">
         <v>142</v>
       </c>
-      <c r="D33" t="s">
-        <v>147</v>
-      </c>
       <c r="E33" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A34" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="B34" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="C34" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="D34" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="E34" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A35" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="B35" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="C35" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="D35" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="E35" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A36" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="B36" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="C36" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="D36" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="E36" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A37" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="B37" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="C37" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="D37" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="E37" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A38" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="B38" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="C38" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="D38" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="E38" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A39" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="B39" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="C39" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="D39" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="E39" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A40" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="B40" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="C40" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="D40" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="E40" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A41" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="B41" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="C41" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="D41" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="E41" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A42" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="B42" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="C42" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="D42" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="E42" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A43" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="B43" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="C43" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="D43" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="E43" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
     </row>
   </sheetData>
